--- a/output/part1/grs_size_op_inv3.xlsx
+++ b/output/part1/grs_size_op_inv3.xlsx
@@ -462,87 +462,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.216268007137009</v>
+        <v>16.61753674131967</v>
       </c>
       <c r="B2" t="n">
-        <v>7.787548383930698e-11</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09456500972646452</v>
+        <v>0.01008485813524562</v>
       </c>
       <c r="D2" t="n">
-        <v>40.43139069836962</v>
+        <v>0.6111179909053543</v>
       </c>
       <c r="E2" t="n">
-        <v>1634.697353804209</v>
+        <v>0.3734651988081968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.020127041976242</v>
+        <v>12.0063920414376</v>
       </c>
       <c r="B3" t="n">
-        <v>2.796557511564046e-06</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06536261618507942</v>
+        <v>0.007484340220086571</v>
       </c>
       <c r="D3" t="n">
-        <v>27.94587003893629</v>
+        <v>0.4535329002364838</v>
       </c>
       <c r="E3" t="n">
-        <v>780.971652233117</v>
+        <v>0.2056920915969164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.514965172956314</v>
+        <v>14.61654013638949</v>
       </c>
       <c r="B4" t="n">
-        <v>2.007261878933519e-08</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05671774258811536</v>
+        <v>0.01136024991398938</v>
       </c>
       <c r="D4" t="n">
-        <v>24.24974329028057</v>
+        <v>0.6884036453975196</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0500496445076</v>
+        <v>0.4738995789965941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.657650380939112</v>
+        <v>13.95865213269506</v>
       </c>
       <c r="B5" t="n">
-        <v>4.763179850542087e-10</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1320339320572989</v>
+        <v>0.01093531990953677</v>
       </c>
       <c r="D5" t="n">
-        <v>56.45127630073819</v>
+        <v>0.6626539157420355</v>
       </c>
       <c r="E5" t="n">
-        <v>3186.746595982284</v>
+        <v>0.4391102120482526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.490826068363048</v>
+        <v>10.23090431328895</v>
       </c>
       <c r="B6" t="n">
-        <v>5.90005780898295e-07</v>
+        <v>1.165734175856414e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03878999936818057</v>
+        <v>0.004541505896120918</v>
       </c>
       <c r="D6" t="n">
-        <v>16.58471377712461</v>
+        <v>0.2752042638282132</v>
       </c>
       <c r="E6" t="n">
-        <v>275.0527310691469</v>
+        <v>0.07573738682922874</v>
       </c>
     </row>
   </sheetData>
